--- a/rajdhani_node/uploads/SAE 61_template (1).xlsx
+++ b/rajdhani_node/uploads/SAE 61_template (1).xlsx
@@ -413,7 +413,7 @@
         <v>wire_type</v>
       </c>
       <c r="D1" t="str">
-        <v>with_cap</v>
+        <v>ferrule</v>
       </c>
       <c r="E1" t="str">
         <v>fitting_piece</v>
@@ -481,7 +481,7 @@
         <v>1/4"</v>
       </c>
       <c r="I2" t="str">
-        <v>30.3"</v>
+        <v>30.3</v>
       </c>
       <c r="J2" t="str">
         <v>Flange</v>
